--- a/ZongCe2018/评委小组账户（模板）.xlsx
+++ b/ZongCe2018/评委小组账户（模板）.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0E5F7E8C-0C1C-4207-8F7F-3B7C9D7813D6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白文涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信管1503班学委</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李松山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0121503490301</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,14 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>信管1503班团支书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞欣怡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>使用前请删除全部黑色文字，保留红色文字，并确保格式匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,13 +70,25 @@
   </si>
   <si>
     <t>班级代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信管1503班评委甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +184,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{3CDF258B-188A-4A62-BE08-1BAE585F0EA9}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -467,10 +462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,18 +482,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -510,13 +507,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>1503</v>
@@ -524,13 +521,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>1503</v>
@@ -538,13 +535,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="2">
         <v>1503</v>
@@ -552,7 +549,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>

--- a/ZongCe2018/评委小组账户（模板）.xlsx
+++ b/ZongCe2018/评委小组账户（模板）.xlsx
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,13 @@
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -141,19 +148,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,19 +479,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -492,7 +505,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -556,6 +569,7 @@
       <c r="D7" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="kTFxJ3SZeuIRgym/14kzZ16wblCLVH1JRlb6ctE8SWn0QA/0Prq8+5OvWDpPCm+FLE41CkGBp0m/IL6gwCjNXw==" saltValue="+8TwHg+A9aueOxBLeVDY8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" insertColumns="0" insertRows="0" insertHyperlinks="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A7:D7"/>
   </mergeCells>
